--- a/assets/borrowing Report.xlsx
+++ b/assets/borrowing Report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,6 +406,7 @@
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,39 +437,39 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Harry's Apology</v>
+        <v>Viking Iceland</v>
       </c>
       <c r="B2" t="str">
-        <v>1892617153</v>
+        <v>189264337163</v>
       </c>
       <c r="C2" t="str">
-        <v>hamdy ibrahim</v>
+        <v>hamdy</v>
       </c>
       <c r="D2" t="str">
-        <v>hamdyfarouk444@gmail.com</v>
+        <v>hamdy@gmail.com</v>
       </c>
       <c r="E2" t="str">
         <v>2023-10-22</v>
       </c>
       <c r="F2" t="str">
-        <v>2023-11-24</v>
+        <v>2023-11-26</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>The Last Good Horse</v>
+        <v>Harry's Apology</v>
       </c>
       <c r="B3" t="str">
-        <v>9781892617163</v>
+        <v>1892617153</v>
       </c>
       <c r="C3" t="str">
-        <v>hamdy ibrahim</v>
+        <v>hamdy</v>
       </c>
       <c r="D3" t="str">
-        <v>hamdyfarouk444@gmail.com</v>
+        <v>hamdy@gmail.com</v>
       </c>
       <c r="E3" t="str">
         <v>2023-10-22</v>
@@ -477,7 +478,7 @@
         <v>2023-11-24</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -488,10 +489,10 @@
         <v>9781892617163</v>
       </c>
       <c r="C4" t="str">
-        <v>hamdy ibrahim</v>
+        <v>hamdy</v>
       </c>
       <c r="D4" t="str">
-        <v>hamdyfarouk444@gmail.com</v>
+        <v>hamdy@gmail.com</v>
       </c>
       <c r="E4" t="str">
         <v>2023-10-22</v>
@@ -500,12 +501,35 @@
         <v>2023-11-24</v>
       </c>
       <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>The Last Good Horse</v>
+      </c>
+      <c r="B5" t="str">
+        <v>9781892617163</v>
+      </c>
+      <c r="C5" t="str">
+        <v>hamdy</v>
+      </c>
+      <c r="D5" t="str">
+        <v>hamdy@gmail.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2023-10-22</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2023-11-24</v>
+      </c>
+      <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
   </ignoredErrors>
 </worksheet>
 </file>